--- a/Time sheet/Timetsheet - Yingyao Lu.xlsx
+++ b/Time sheet/Timetsheet - Yingyao Lu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/Team-024/Time sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/mindspace/Time sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3865E8-2DE0-954F-866D-E63154970296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A40C2-1D13-0449-A1B6-2397662A0A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="24540" windowHeight="17500" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week2" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="Week4" sheetId="4" r:id="rId3"/>
     <sheet name="Week5" sheetId="1" r:id="rId4"/>
     <sheet name="Week6" sheetId="5" r:id="rId5"/>
+    <sheet name="Midbreak" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Week2!$A$1:$H$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Week3!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Midbreak!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Week2!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Week3!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Week4!$A$1:$H$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Week5!$A$1:$H$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Week6!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Week6!$A$1:$H$14</definedName>
+    <definedName name="Week_Start" localSheetId="5">Midbreak!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="0">Week2!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="1">Week3!$C$4</definedName>
     <definedName name="Week_Start" localSheetId="2">Week4!$C$4</definedName>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -228,17 +231,7 @@
     <t>Watch tutorial on Udemy; start build demo with Ionic and pure JS</t>
   </si>
   <si>
-    <t>Weekly Group discussion on Pitch slides and Prototype v1.2</t>
-  </si>
-  <si>
     <t>Prepare for week 4 client meeting and pitch presentation slide draft</t>
-  </si>
-  <si>
-    <t>Finish next week Agenda; Discussion on how to modify Pitch slides content and present style; 
-Agree on current design Figma Prototype v1.5</t>
-  </si>
-  <si>
-    <t>Introduce management tool Slack</t>
   </si>
   <si>
     <t>Introduce to teammates; Set up WorkPlace and channels for team; Organise resources on channels.</t>
@@ -302,15 +295,6 @@
     <t>Learn the skill stacks and tools for cross platform development</t>
   </si>
   <si>
-    <t>Prepare Pitch Slide (Template &amp; outline)</t>
-  </si>
-  <si>
-    <t>Understand EQ and the purpose of the application</t>
-  </si>
-  <si>
-    <t>Study project backgroud on Emotional Intellegence</t>
-  </si>
-  <si>
     <t>Group Meeting</t>
   </si>
   <si>
@@ -373,6 +357,67 @@
   </si>
   <si>
     <t xml:space="preserve">Finish what part </t>
+  </si>
+  <si>
+    <t>MidBreak</t>
+  </si>
+  <si>
+    <t>Understand EQ and the purpose of the application; Prepare a template and pitch outline structure;
+Set up as a shared document to teammates</t>
+  </si>
+  <si>
+    <t>Study project backgroud and Prepare Pitch Slide (Template &amp; outline)</t>
+  </si>
+  <si>
+    <t>Weekly Group discussion on Pitch slides and Prototype v1.2; Introduce management tool Slack</t>
+  </si>
+  <si>
+    <t>Finish next week Agenda; Discussion on modify Pitch slides content and present style; Set up Slack</t>
+  </si>
+  <si>
+    <t>Working on Google Auth</t>
+  </si>
+  <si>
+    <t>Develop auth functionalities</t>
+  </si>
+  <si>
+    <t>Working on first demo</t>
+  </si>
+  <si>
+    <t>Work on routing and first demo</t>
+  </si>
+  <si>
+    <t>Study Firebase and auth</t>
+  </si>
+  <si>
+    <t>Work on login signup front end basic look</t>
+  </si>
+  <si>
+    <t>Work on auth with firebae</t>
+  </si>
+  <si>
+    <t>Discuss developing progress</t>
+  </si>
+  <si>
+    <t>Learn Django and Firebase</t>
+  </si>
+  <si>
+    <t>Develop Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare for milestone 1 </t>
+  </si>
+  <si>
+    <t>Firebase and Promise</t>
+  </si>
+  <si>
+    <t>Working on google auth and email register</t>
+  </si>
+  <si>
+    <t>Working on Dashboard with user data</t>
   </si>
 </sst>
 </file>
@@ -518,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,9 +607,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -582,6 +624,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,10 +974,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AW15"/>
+  <dimension ref="A2:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,16 +992,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -988,615 +1036,552 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="15">
         <v>44263</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="20">
-        <v>0.5</v>
+      <c r="D6" s="19">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-    </row>
-    <row r="7" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+    </row>
+    <row r="7" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="15">
         <v>44264</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.75</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-    </row>
-    <row r="8" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0.83333333333333337</v>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+    </row>
+    <row r="8" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44265</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-    </row>
-    <row r="9" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+    </row>
+    <row r="9" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="15">
-        <v>44265</v>
-      </c>
-      <c r="C9" s="20">
+        <v>44266</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+    </row>
+    <row r="10" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44267</v>
+      </c>
+      <c r="C10" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D9" s="20">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-    </row>
-    <row r="10" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="15">
-        <v>44266</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.70833333333333337</v>
+      <c r="D10" s="19">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+    </row>
+    <row r="11" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+    </row>
+    <row r="12" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-    </row>
-    <row r="11" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15">
-        <v>44267</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="G12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+    </row>
+    <row r="13" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15">
+        <v>44268</v>
+      </c>
+      <c r="C13" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-    </row>
-    <row r="12" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-    </row>
-    <row r="13" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.875</v>
+      <c r="D13" s="19">
+        <v>0.625</v>
       </c>
       <c r="E13" s="13">
         <v>3</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="F13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-    </row>
-    <row r="14" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15">
-        <v>44268</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.625</v>
-      </c>
-      <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-    </row>
-    <row r="15" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+    </row>
+    <row r="14" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8">
-        <f>SUM(E6:E14)</f>
-        <v>20</v>
+      <c r="E14" s="8">
+        <f>SUM(E6:E13)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1589,7 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
@@ -1619,10 +1604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AW17"/>
+  <dimension ref="A2:AW16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,16 +1622,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1681,744 +1666,682 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="15">
         <v>44270</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.5</v>
       </c>
       <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-    </row>
-    <row r="7" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+    </row>
+    <row r="7" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="15">
         <v>44271</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.60416666666666663</v>
       </c>
       <c r="E7" s="13">
         <v>0.5</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-    </row>
-    <row r="8" spans="1:49" s="23" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+    </row>
+    <row r="8" spans="1:49" s="22" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0.6875</v>
       </c>
       <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-    </row>
-    <row r="9" spans="1:49" s="23" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+    </row>
+    <row r="9" spans="1:49" s="22" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>0.75</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>0.83333333333333337</v>
       </c>
       <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-    </row>
-    <row r="10" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+    </row>
+    <row r="10" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="15">
         <v>44272</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-    </row>
-    <row r="11" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+    </row>
+    <row r="11" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="15">
         <v>44273</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>0.70833333333333337</v>
       </c>
       <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-    </row>
-    <row r="12" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+    </row>
+    <row r="12" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15">
         <v>44274</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D12" s="20">
-        <v>0.70833333333333337</v>
+      <c r="D12" s="19">
+        <v>0.75</v>
       </c>
       <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+    </row>
+    <row r="13" spans="1:49" s="22" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-    </row>
-    <row r="13" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="C13" s="20">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-    </row>
-    <row r="14" spans="1:49" s="23" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.83333333333333337</v>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+    </row>
+    <row r="14" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15">
+        <v>44275</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.625</v>
       </c>
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>64</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+    </row>
+    <row r="15" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15">
+        <v>44276</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-    </row>
-    <row r="15" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="15">
-        <v>44275</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.625</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-    </row>
-    <row r="16" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="15">
-        <v>44276</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-    </row>
-    <row r="17" spans="4:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="18" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+    </row>
+    <row r="16" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8">
-        <f>SUM(E6:E16)</f>
+      <c r="E16" s="8">
+        <f>SUM(E6:E15)</f>
         <v>20.5</v>
       </c>
     </row>
@@ -2427,7 +2350,7 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="B8 C6:D16" xr:uid="{94348A69-CF4E-6945-9FC6-0D4097C26C1E}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="B8 C6:D15" xr:uid="{94348A69-CF4E-6945-9FC6-0D4097C26C1E}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
@@ -2444,8 +2367,8 @@
   </sheetPr>
   <dimension ref="A2:AW17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2460,16 +2383,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2504,746 +2427,746 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="15">
         <v>44277</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.58333333333333337</v>
       </c>
       <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-    </row>
-    <row r="7" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+    </row>
+    <row r="7" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="15">
         <v>44278</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.60416666666666663</v>
       </c>
       <c r="E7" s="13">
         <v>0.5</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>103</v>
+      <c r="G7" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-    </row>
-    <row r="8" spans="1:49" s="23" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+    </row>
+    <row r="8" spans="1:49" s="22" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>92</v>
+      <c r="G8" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-    </row>
-    <row r="9" spans="1:49" s="23" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+    </row>
+    <row r="9" spans="1:49" s="22" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>0.70833333333333337</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-    </row>
-    <row r="10" spans="1:49" s="23" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+    </row>
+    <row r="10" spans="1:49" s="22" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="15">
         <v>44279</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-    </row>
-    <row r="11" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+    </row>
+    <row r="11" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="15">
         <v>44280</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D11" s="20">
-        <v>0.66666666666666663</v>
+      <c r="D11" s="19">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-    </row>
-    <row r="12" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+    </row>
+    <row r="12" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15">
         <v>44281</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>0.75</v>
       </c>
       <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-    </row>
-    <row r="13" spans="1:49" s="23" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+    </row>
+    <row r="13" spans="1:49" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D13" s="20">
-        <v>0.79166666666666663</v>
+      <c r="D13" s="19">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E13" s="13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-    </row>
-    <row r="14" spans="1:49" s="23" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+    </row>
+    <row r="14" spans="1:49" s="22" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="15">
         <v>44282</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>92</v>
+      <c r="F14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-    </row>
-    <row r="15" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+    </row>
+    <row r="15" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>0.70833333333333337</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>67</v>
+      <c r="F15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-    </row>
-    <row r="16" spans="1:49" s="23" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+    </row>
+    <row r="16" spans="1:49" s="22" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="15">
         <v>44283</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="E16" s="13">
         <v>5</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>89</v>
+      <c r="F16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
     </row>
     <row r="17" spans="4:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="8">
         <f>SUM(E6:E16)</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3191,7 @@
   </sheetPr>
   <dimension ref="A2:AW15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3285,16 +3208,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3984,10 +3907,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AW15"/>
+  <dimension ref="A2:AW13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4003,16 +3926,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4031,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="34" x14ac:dyDescent="0.2">
@@ -4071,25 +3994,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="15">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="C6" s="16">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D6" s="16">
-        <v>0.54166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -4138,7 +4061,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="15">
-        <v>44285</v>
+        <v>44292</v>
       </c>
       <c r="C7" s="16">
         <v>0.625</v>
@@ -4205,25 +4128,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="15">
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="C8" s="16">
         <v>0.54166666666666663</v>
       </c>
       <c r="D8" s="16">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -4272,25 +4195,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="15">
-        <v>44287</v>
+        <v>44294</v>
       </c>
       <c r="C9" s="16">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D9" s="16">
         <v>0.66666666666666663</v>
       </c>
       <c r="E9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -4339,7 +4262,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="15">
-        <v>44288</v>
+        <v>44295</v>
       </c>
       <c r="C10" s="16">
         <v>0.66666666666666663</v>
@@ -4351,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -4401,9 +4324,13 @@
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
     </row>
-    <row r="11" spans="1:49" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15">
+        <v>44297</v>
+      </c>
       <c r="C11" s="16">
         <v>0.58333333333333337</v>
       </c>
@@ -4414,13 +4341,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -4464,30 +4391,30 @@
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
     </row>
-    <row r="12" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="15">
-        <v>44289</v>
+        <v>44298</v>
       </c>
       <c r="C12" s="16">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D12" s="16">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -4531,27 +4458,581 @@
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
     </row>
-    <row r="13" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16">
+    <row r="13" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SUM(E6:E12)</f>
+        <v>20</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{49C79498-4457-8F43-ADC1-F9D6BF75FDD5}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6209113F-D5F6-3947-B4BE-27C6D4044745}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AW20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="15" max="49" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1784870</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44299</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+    </row>
+    <row r="7" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15">
+        <v>44300</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+    </row>
+    <row r="8" spans="1:49" s="10" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44301</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E8" s="13">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+    </row>
+    <row r="9" spans="1:49" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15">
+        <v>44302</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D13" s="16">
-        <v>0.1875</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+    </row>
+    <row r="10" spans="1:49" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44303</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+    </row>
+    <row r="11" spans="1:49" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15">
+        <v>44304</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+    </row>
+    <row r="12" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>44305</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+    </row>
+    <row r="13" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>44306</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4594,31 +5075,19 @@
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
     </row>
-    <row r="14" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15">
-        <v>44290</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>44307</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -4661,27 +5130,324 @@
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
     </row>
-    <row r="15" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="6" t="s">
+    <row r="15" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>44308</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+    </row>
+    <row r="16" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>44309</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+    </row>
+    <row r="17" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>44310</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+    </row>
+    <row r="18" spans="1:49" s="10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>44311</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+    </row>
+    <row r="19" spans="1:49" s="10" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="15">
+        <v>44312</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.1875</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+    </row>
+    <row r="20" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8">
-        <f>SUM(E6:E14)</f>
-        <v>15</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="E20" s="8">
+        <f>SUM(E6:E19)</f>
+        <v>22</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{49C79498-4457-8F43-ADC1-F9D6BF75FDD5}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D19" xr:uid="{C1A8D00D-66CD-1C4A-BB69-3859D505A339}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
